--- a/美区本土白6.xlsx
+++ b/美区本土白6.xlsx
@@ -103,7 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -145,6 +145,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,13 +458,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="52.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="72.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="52.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="72.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -476,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -491,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -506,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -521,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -536,7 +539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
